--- a/Find Replace Codes.xlsx
+++ b/Find Replace Codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luxtonus-my.sharepoint.com/personal/thomas_luxton_uk/Documents/3D Printing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\GitHub\GCodeTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_F25DC773A252ABDACC1048DC791B62F65BDE58E0" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{32D8EE9E-44A9-4CD9-8317-377E0283223B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D575582-3348-473E-8915-0B1005AC0D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4536" yWindow="9000" windowWidth="23088" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21090" yWindow="3180" windowWidth="20400" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>;Remove Temp tool changes M105 followed by M109</t>
   </si>
   <si>
-    <t>G10\n;MESH.*\nG0 F[0-9]{3,}</t>
-  </si>
-  <si>
     <t>;/Change Tool\n;Removed Retract G92 E0</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>Left in Just in Case.</t>
+  </si>
+  <si>
+    <t>;MESH.*\nG0 F[0-9]{3,}</t>
   </si>
 </sst>
 </file>
@@ -408,14 +408,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -441,52 +441,52 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
